--- a/位号隔开公式.xlsx
+++ b/位号隔开公式.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0E9AF-55DC-4903-A2B9-99AFC7364197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3000" yWindow="2025" windowWidth="21810" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>LT3388~LT3399</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,11 +201,47 @@
     <t>PT-205/PT-206/PT-207</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LT3388~LT3390、LT3366~LT3370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388~LT3390；LT3366~LT3371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388~LT3390，LT3366~LT3372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388~LT3390/LT3366~LT3373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388A~LT3399A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388A~LT3399A、LT3366B~LT3370B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388A~LT3399A；LT3366B~LT3370B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388A~LT3399A，LT3366B~LT3370B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3388A~LT3399A/LT3366B~LT3370B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,6 +322,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -324,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,9 +405,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,6 +457,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,7 +649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -762,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,7 +866,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -837,6 +919,51 @@
       </c>
       <c r="B8" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/位号隔开公式.xlsx
+++ b/位号隔开公式.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0E9AF-55DC-4903-A2B9-99AFC7364197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BA692-084F-4E2F-BC7C-7875302982C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2025" windowWidth="21810" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22665" windowHeight="14145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>LT3388~LT3399</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>LT3388A~LT3399A/LT3366B~LT3370B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT-10302a-o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT-201~209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT1101~1105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -964,6 +976,21 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
